--- a/contratos/contratos-12-2012.xlsx
+++ b/contratos/contratos-12-2012.xlsx
@@ -523,10 +523,10 @@
     <t>VALENZUELA NESTOR GABRIEL</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -553,7 +553,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BURGOS DANIEL RAUL</t>
@@ -847,391 +847,391 @@
     <t>12</t>
   </si>
   <si>
-    <t>8.067,61</t>
-  </si>
-  <si>
-    <t>17.416,81</t>
-  </si>
-  <si>
-    <t>9.625,00</t>
-  </si>
-  <si>
-    <t>249.977,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>105,28</t>
-  </si>
-  <si>
-    <t>79.870,00</t>
-  </si>
-  <si>
-    <t>139.782,56</t>
-  </si>
-  <si>
-    <t>6.088,92</t>
-  </si>
-  <si>
-    <t>1.085,50</t>
-  </si>
-  <si>
-    <t>8.134,12</t>
-  </si>
-  <si>
-    <t>4.530,00</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>713,70</t>
-  </si>
-  <si>
-    <t>354,65</t>
-  </si>
-  <si>
-    <t>469,29</t>
-  </si>
-  <si>
-    <t>35.295,00</t>
-  </si>
-  <si>
-    <t>82,23</t>
-  </si>
-  <si>
-    <t>24.595,88</t>
-  </si>
-  <si>
-    <t>164,00</t>
-  </si>
-  <si>
-    <t>497,98</t>
-  </si>
-  <si>
-    <t>146,06</t>
-  </si>
-  <si>
-    <t>144,11</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>18.294,30</t>
-  </si>
-  <si>
-    <t>1.550,27</t>
-  </si>
-  <si>
-    <t>50.225,42</t>
-  </si>
-  <si>
-    <t>39,99</t>
-  </si>
-  <si>
-    <t>4.199,18</t>
-  </si>
-  <si>
-    <t>985,19</t>
-  </si>
-  <si>
-    <t>2.280,50</t>
-  </si>
-  <si>
-    <t>310,67</t>
-  </si>
-  <si>
-    <t>5.164,10</t>
-  </si>
-  <si>
-    <t>6.716,20</t>
-  </si>
-  <si>
-    <t>5.132,39</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>33.739,38</t>
-  </si>
-  <si>
-    <t>32,00</t>
-  </si>
-  <si>
-    <t>3.081,62</t>
-  </si>
-  <si>
-    <t>5.165,86</t>
-  </si>
-  <si>
-    <t>520,39</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>53.460,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>3.226,95</t>
-  </si>
-  <si>
-    <t>43.010,74</t>
-  </si>
-  <si>
-    <t>243,16</t>
-  </si>
-  <si>
-    <t>96,71</t>
-  </si>
-  <si>
-    <t>5,64</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>13.390,00</t>
-  </si>
-  <si>
-    <t>2.631,36</t>
-  </si>
-  <si>
-    <t>4.866,00</t>
-  </si>
-  <si>
-    <t>6.875,00</t>
-  </si>
-  <si>
-    <t>33,10</t>
-  </si>
-  <si>
-    <t>414,52</t>
-  </si>
-  <si>
-    <t>3.585,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>182.370,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.078,24</t>
-  </si>
-  <si>
-    <t>60,92</t>
-  </si>
-  <si>
-    <t>293,30</t>
-  </si>
-  <si>
-    <t>4.030,00</t>
-  </si>
-  <si>
-    <t>719,00</t>
-  </si>
-  <si>
-    <t>1.449,00</t>
-  </si>
-  <si>
-    <t>427,00</t>
-  </si>
-  <si>
-    <t>157,32</t>
-  </si>
-  <si>
-    <t>1.377,15</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>150,20</t>
-  </si>
-  <si>
-    <t>886,80</t>
-  </si>
-  <si>
-    <t>37,35</t>
-  </si>
-  <si>
-    <t>1.843,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>5.040,00</t>
-  </si>
-  <si>
-    <t>14.216,00</t>
-  </si>
-  <si>
-    <t>1.398,57</t>
-  </si>
-  <si>
-    <t>34,68</t>
-  </si>
-  <si>
-    <t>1.640,00</t>
-  </si>
-  <si>
-    <t>2.351,00</t>
-  </si>
-  <si>
-    <t>11.227,48</t>
-  </si>
-  <si>
-    <t>8.712,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.031,16</t>
-  </si>
-  <si>
-    <t>1.368,00</t>
-  </si>
-  <si>
-    <t>699,98</t>
-  </si>
-  <si>
-    <t>1.193,02</t>
-  </si>
-  <si>
-    <t>17.160,00</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>1.491,07</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>10,36</t>
-  </si>
-  <si>
-    <t>1.846,96</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>1.694,00</t>
-  </si>
-  <si>
-    <t>561,90</t>
-  </si>
-  <si>
-    <t>0,81</t>
-  </si>
-  <si>
-    <t>6.044,09</t>
-  </si>
-  <si>
-    <t>5.823,00</t>
-  </si>
-  <si>
-    <t>5.625,14</t>
-  </si>
-  <si>
-    <t>118,80</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>19.259,00</t>
-  </si>
-  <si>
-    <t>4.272,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>1.066,20</t>
-  </si>
-  <si>
-    <t>1.454,42</t>
-  </si>
-  <si>
-    <t>2.078,46</t>
-  </si>
-  <si>
-    <t>993.093,55</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>50.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>5.650,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>278,00</t>
-  </si>
-  <si>
-    <t>112,00</t>
-  </si>
-  <si>
-    <t>4.257,99</t>
+    <t>8067.61</t>
+  </si>
+  <si>
+    <t>17416.81</t>
+  </si>
+  <si>
+    <t>9625.00</t>
+  </si>
+  <si>
+    <t>249977.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>105.28</t>
+  </si>
+  <si>
+    <t>79870.00</t>
+  </si>
+  <si>
+    <t>139782.56</t>
+  </si>
+  <si>
+    <t>6088.92</t>
+  </si>
+  <si>
+    <t>1085.50</t>
+  </si>
+  <si>
+    <t>8134.12</t>
+  </si>
+  <si>
+    <t>4530.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>713.70</t>
+  </si>
+  <si>
+    <t>354.65</t>
+  </si>
+  <si>
+    <t>469.29</t>
+  </si>
+  <si>
+    <t>35295.00</t>
+  </si>
+  <si>
+    <t>82.23</t>
+  </si>
+  <si>
+    <t>24595.88</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>497.98</t>
+  </si>
+  <si>
+    <t>146.06</t>
+  </si>
+  <si>
+    <t>144.11</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>18294.30</t>
+  </si>
+  <si>
+    <t>1550.27</t>
+  </si>
+  <si>
+    <t>50225.42</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>4199.18</t>
+  </si>
+  <si>
+    <t>985.19</t>
+  </si>
+  <si>
+    <t>2280.50</t>
+  </si>
+  <si>
+    <t>310.67</t>
+  </si>
+  <si>
+    <t>5164.10</t>
+  </si>
+  <si>
+    <t>6716.20</t>
+  </si>
+  <si>
+    <t>5132.39</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>33739.38</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>3081.62</t>
+  </si>
+  <si>
+    <t>5165.86</t>
+  </si>
+  <si>
+    <t>520.39</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>53460.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>3226.95</t>
+  </si>
+  <si>
+    <t>43010.74</t>
+  </si>
+  <si>
+    <t>243.16</t>
+  </si>
+  <si>
+    <t>96.71</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>13390.00</t>
+  </si>
+  <si>
+    <t>2631.36</t>
+  </si>
+  <si>
+    <t>4866.00</t>
+  </si>
+  <si>
+    <t>6875.00</t>
+  </si>
+  <si>
+    <t>33.10</t>
+  </si>
+  <si>
+    <t>414.52</t>
+  </si>
+  <si>
+    <t>3585.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>182370.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3078.24</t>
+  </si>
+  <si>
+    <t>60.92</t>
+  </si>
+  <si>
+    <t>293.30</t>
+  </si>
+  <si>
+    <t>4030.00</t>
+  </si>
+  <si>
+    <t>719.00</t>
+  </si>
+  <si>
+    <t>1449.00</t>
+  </si>
+  <si>
+    <t>427.00</t>
+  </si>
+  <si>
+    <t>157.32</t>
+  </si>
+  <si>
+    <t>1377.15</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>150.20</t>
+  </si>
+  <si>
+    <t>886.80</t>
+  </si>
+  <si>
+    <t>37.35</t>
+  </si>
+  <si>
+    <t>1843.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>5040.00</t>
+  </si>
+  <si>
+    <t>14216.00</t>
+  </si>
+  <si>
+    <t>1398.57</t>
+  </si>
+  <si>
+    <t>34.68</t>
+  </si>
+  <si>
+    <t>1640.00</t>
+  </si>
+  <si>
+    <t>2351.00</t>
+  </si>
+  <si>
+    <t>11227.48</t>
+  </si>
+  <si>
+    <t>8712.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2031.16</t>
+  </si>
+  <si>
+    <t>1368.00</t>
+  </si>
+  <si>
+    <t>699.98</t>
+  </si>
+  <si>
+    <t>1193.02</t>
+  </si>
+  <si>
+    <t>17160.00</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>1491.07</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>10.36</t>
+  </si>
+  <si>
+    <t>1846.96</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>1694.00</t>
+  </si>
+  <si>
+    <t>561.90</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>6044.09</t>
+  </si>
+  <si>
+    <t>5823.00</t>
+  </si>
+  <si>
+    <t>5625.14</t>
+  </si>
+  <si>
+    <t>118.80</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19259.00</t>
+  </si>
+  <si>
+    <t>4272.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>1066.20</t>
+  </si>
+  <si>
+    <t>1454.42</t>
+  </si>
+  <si>
+    <t>2078.46</t>
+  </si>
+  <si>
+    <t>993093.55</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>50200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>5650.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>278.00</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>4257.99</t>
   </si>
 </sst>
 </file>
